--- a/uploads/resultados_Scoring.xlsx
+++ b/uploads/resultados_Scoring.xlsx
@@ -29,30 +29,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001AE500"/>
-        <bgColor rgb="001AE500"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0027D800"/>
-        <bgColor rgb="0027D800"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0034CB00"/>
-        <bgColor rgb="0034CB00"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -64,18 +46,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="005AA500"/>
         <bgColor rgb="005AA500"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00926D00"/>
-        <bgColor rgb="00926D00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00946B00"/>
-        <bgColor rgb="00946B00"/>
       </patternFill>
     </fill>
     <fill>
@@ -94,18 +64,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00E61900"/>
         <bgColor rgb="00E61900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F30C00"/>
-        <bgColor rgb="00F30C00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -127,7 +85,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -137,13 +95,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -509,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,11 +547,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Teruel</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -619,10 +570,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>629568367</v>
+        <v>600480908</v>
       </c>
       <c r="G2" t="n">
-        <v>609679378</v>
+        <v>617114973</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -641,59 +592,59 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>629568367</t>
+          <t>600480908</t>
         </is>
       </c>
       <c r="M2" s="2" t="n">
-        <v>90</v>
+        <v>67.64705882352942</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>1.434782608695652</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>2.28</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Almería</t>
+          <t>Alicante</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SH SURESTE</t>
+          <t>SCALEVANTE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sergio Fernandez</t>
+          <t>David Ferri</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>sergio.fernandez@scania.com</t>
+          <t>dferri@scalevante.com</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>687754160</v>
+        <v>687527066</v>
       </c>
       <c r="G3" t="n">
-        <v>646280354</v>
+        <v>958999142</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Antonio Ponce</t>
+          <t>Eloy Verdu</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>antonio.ponce@scania.com</t>
+          <t>everdu@scalevante.com</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -703,90 +654,90 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>687754160</t>
+          <t>687527066</t>
         </is>
       </c>
       <c r="M3" s="3" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>1.538461538461</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.58</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ávila</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>R.PEINADO</t>
+          <t>SH CENTRO-CANARIAS</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>JORGE MARTÍN</t>
+          <t>ANTONIO MARTÍN</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">carlos.avis@talleres-pablo-garcia.com                 </t>
+          <t>antonio.martin@scania.com</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>649825955</v>
+        <v>626178294</v>
       </c>
       <c r="G4" t="n">
-        <v>608380596</v>
+        <v>955902000</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ALFONSO LABIÁN</t>
+          <t>CÉSAR LINARES</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>alfonso.labian@rpeinado.com</t>
+          <t>cesar.linares@scania.com</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Oscar Martinez</t>
+          <t>Raul Herranz</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>649825955</t>
+          <t>626178294</t>
         </is>
       </c>
       <c r="M4" s="4" t="n">
-        <v>79.74683544303798</v>
+        <v>35</v>
       </c>
       <c r="N4" t="n">
-        <v>39</v>
+        <v>2.857142857142</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.00</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Madrid (SH )</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -796,28 +747,28 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>JAVIER GARCÍA</t>
+          <t>ANTONIO MARTÍN</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>javier.garcia.jorge@scania.com</t>
+          <t>antonio.martin@scania.com</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>600480908</v>
+        <v>667224640</v>
       </c>
       <c r="G5" t="n">
-        <v>617114973</v>
+        <v>630407582</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>JAVIER GÓMEZ</t>
+          <t>CÉSAR LINARES</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>javier.gomez@scania.com</t>
+          <t>cesar.linares@scania.com</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -827,121 +778,123 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>600480908</t>
+          <t>667224640</t>
         </is>
       </c>
       <c r="M5" s="5" t="n">
-        <v>67.64705882352942</v>
+        <v>15</v>
       </c>
       <c r="N5" t="n">
-        <v>33</v>
+        <v>6.666666666666</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>1.50</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alicante</t>
+          <t>Cuenca</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SCALEVANTE</t>
+          <t>SH CENTRO-CANARIAS</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>David Ferri</t>
+          <t>CÉSAR LINARES</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>dferri@scalevante.com</t>
+          <t>cesar.linares@scania.com</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>687527066</v>
+        <v>687396555</v>
       </c>
       <c r="G6" t="n">
-        <v>958999142</v>
+        <v>608380596</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Eloy Verdu</t>
+          <t>CÉSAR LINARES</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>everdu@scalevante.com</t>
+          <t>cesar.linares@scania.com</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Oscar Martinez</t>
+          <t>Raul Herranz</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>687527066</t>
+          <t>687396555</t>
         </is>
       </c>
       <c r="M6" s="6" t="n">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="N6" t="n">
         <v>10</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>2.00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gerona</t>
+          <t>Ávila</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CAMION GRUP</t>
+          <t>R.PEINADO</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Jordi Guso</t>
+          <t>JORGE MARTÍN</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>jordi.guso@camiongrup.com</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>955902000</v>
+          <t xml:space="preserve">carlos.avis@talleres-pablo-garcia.com                 </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>649825 955</t>
+        </is>
       </c>
       <c r="G7" t="n">
-        <v>696895733</v>
+        <v>608380596</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Jordi Guso</t>
+          <t>ALFONSO LABIÁN</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>jordi.guso@camiongrup.com</t>
+          <t>alfonso.labian@rpeinado.com</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -951,18 +904,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>955902000</t>
-        </is>
-      </c>
-      <c r="M7" s="7" t="n">
-        <v>43.00341296928327</v>
-      </c>
-      <c r="N7" t="n">
-        <v>146</v>
+          <t>649825955</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -991,7 +938,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>626753105</v>
+        <v>34626753105</v>
       </c>
       <c r="G8" t="n">
         <v>628820282</v>
@@ -1011,30 +958,19 @@
           <t>Diego Gutierrez</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>626753105</t>
-        </is>
-      </c>
-      <c r="M8" s="8" t="n">
-        <v>42.11711711711711</v>
-      </c>
-      <c r="N8" t="n">
-        <v>433</v>
-      </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>36.04</t>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Teruel</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1044,28 +980,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ANTONIO MARTÍN</t>
+          <t>JAVIER GARCÍA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>antonio.martin@scania.com</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>626178294</v>
+          <t>javier.garcia.jorge@scania.com</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>+34629568367</t>
+        </is>
       </c>
       <c r="G9" t="n">
-        <v>955902000</v>
+        <v>609679378</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>CÉSAR LINARES</t>
+          <t>JAVIER GÓMEZ</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>cesar.linares@scania.com</t>
+          <t>javier.gomez@scania.com</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1075,792 +1013,61 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>626178294</t>
-        </is>
-      </c>
-      <c r="M9" s="9" t="n">
-        <v>35</v>
-      </c>
-      <c r="N9" t="n">
-        <v>4</v>
+          <t>629568367</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Madrid (SH )</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SH CENTRO-CANARIAS</t>
+          <t>SH SURESTE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ANTONIO MARTÍN</t>
+          <t>Sergio Fernandez</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>antonio.martin@scania.com</t>
+          <t>sergio.fernandez@scania.com</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>667224640</v>
+        <v>6877541606</v>
       </c>
       <c r="G10" t="n">
-        <v>630407582</v>
+        <v>646280354</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>CÉSAR LINARES</t>
+          <t>Antonio Ponce</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>cesar.linares@scania.com</t>
+          <t>antonio.ponce@scania.com</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Raul Herranz</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>667224640</t>
-        </is>
-      </c>
-      <c r="M10" s="10" t="n">
-        <v>15</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2</v>
+          <t>Oscar Martinez</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>17</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Cuenca</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>SH CENTRO-CANARIAS</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>CÉSAR LINARES</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>cesar.linares@scania.com</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>687396555</v>
-      </c>
-      <c r="G11" t="n">
-        <v>608380596</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>CÉSAR LINARES</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>cesar.linares@scania.com</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Raul Herranz</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>687396555</t>
-        </is>
-      </c>
-      <c r="M11" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Burgos</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>BODY&amp;TRUCK</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Ismael Heras</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ismael.heras@bodyandtruck.com</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>947480033</v>
-      </c>
-      <c r="G12" t="n">
-        <v>952179495</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Antonio Sanchez</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>antonio.sanchez@bodyandtruck.com</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Diego Gutierrez</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>947480033</t>
-        </is>
-      </c>
-      <c r="M12" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>51</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Zamora</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>SH NOROESTE</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Eduardo Alonso</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>eduardo.alonso@scania.com</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>987346451</v>
-      </c>
-      <c r="G13" t="n">
-        <v>682699441</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>David Fayos</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>david.fayos@scania.com</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Diego Gutierrez</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>987346451</t>
-        </is>
-      </c>
-      <c r="M13" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>15</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Ciudad Real</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>R.PEINADO</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>JORGE MARTÍN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>jorge.martin@rpeinado.com</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>670434813</v>
-      </c>
-      <c r="G14" t="n">
-        <v>616686909</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ALFONSO LABIÁN</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>alfonso.labian@rpeinado.com</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Oscar Martinez</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>670434813</t>
-        </is>
-      </c>
-      <c r="M14" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>35</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Murcia</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>SCALEVANTE</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Javier Espinosa</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>jespinosa@scalevante.com</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>629467596</v>
-      </c>
-      <c r="G15" t="n">
-        <v>35191619958</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Eloy Verdu</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>everdu@scalevante.com</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Oscar Martinez</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>629467596</t>
-        </is>
-      </c>
-      <c r="M15" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>44</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Soria</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>BODY&amp;TRUCK</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ISMAEL HERAS</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ismael.heras@bodyandtruck.com</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>619305180</v>
-      </c>
-      <c r="G16" t="n">
-        <v>616686909</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Antonio Sanchez</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>antonio.sanchez@bodyandtruck.com</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Diego Gutierrez</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>619305180</t>
-        </is>
-      </c>
-      <c r="M16" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>45</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Tarragona</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>T.RAPALO</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>AGUSTIN IRIARTE</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>agustin.idiarte@talleresrapalo.es</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>650434228</v>
-      </c>
-      <c r="G17" t="n">
-        <v>608380596</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>AGUSTIN IRIARTE</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>agustin.idiarte@talleresrapalo.es</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Diego Gutierrez</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>650434228</t>
-        </is>
-      </c>
-      <c r="M17" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>34</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Málaga</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>SH SURESTE</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Cristina Molero</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>cristina.molero@scania.com</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>952179495</v>
-      </c>
-      <c r="G18" t="n">
-        <v>669262101</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Francisco Molina</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>francisco.molina@scania.com</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Oscar Martinez</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>952179495</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>2</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Albacete</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>SCALEVANTE</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>David Ferri</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>dferri@scalevante.com</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>606372773</v>
-      </c>
-      <c r="G19" t="n">
-        <v>987346451</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Eloy Verdu</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>everdu@scalevante.com</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Oscar Martinez</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>606372773</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>14</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Castellón</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>T.RAPALO</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>XIMO BARBERÁ</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>ximo.barbera@talleresrapalo.es</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>696895733</v>
-      </c>
-      <c r="G20" t="n">
-        <v>678714482</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Enrique Ortiz</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>enrique.ortiz@talleresrapalo.es</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Diego Gutierrez</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>696895733</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>52</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Zaragoza</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>SH CENTRO-CANARIAS</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>JAVIER GARCÍA</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>javier.garcia.jorge@scania.com</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>193051803</v>
-      </c>
-      <c r="G21" t="n">
-        <v>606372773</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>JAVIER GÓMEZ</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>javier.gomez@scania.com</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Raul Herranz</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>193051803</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>26</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>La Coruña</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>SH NOROESTE</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Diego Alonso</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>diego.alonso@scania.com</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>682699441</v>
-      </c>
-      <c r="G22" t="n">
-        <v>660785264</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Jorge Luis Alonso Abella</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>jorge.alonso@scania.com</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Diego Gutierrez</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>682699441</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>

--- a/uploads/resultados_Scoring.xlsx
+++ b/uploads/resultados_Scoring.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -29,30 +29,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001AE500"/>
-        <bgColor rgb="001AE500"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0027D800"/>
-        <bgColor rgb="0027D800"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0034CB00"/>
-        <bgColor rgb="0034CB00"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -64,18 +46,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="005AA500"/>
         <bgColor rgb="005AA500"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00926D00"/>
-        <bgColor rgb="00926D00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00946B00"/>
-        <bgColor rgb="00946B00"/>
       </patternFill>
     </fill>
     <fill>
@@ -94,18 +64,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00E61900"/>
         <bgColor rgb="00E61900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F30C00"/>
-        <bgColor rgb="00F30C00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -127,7 +85,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -137,13 +95,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -509,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,11 +547,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Teruel</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -619,10 +570,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>629568367</v>
+        <v>600480908</v>
       </c>
       <c r="G2" t="n">
-        <v>609679378</v>
+        <v>617114973</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -641,59 +592,59 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>629568367</t>
+          <t>600480908</t>
         </is>
       </c>
       <c r="M2" s="2" t="n">
-        <v>90</v>
+        <v>67.64705882352942</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>1.434782608695652</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>2.28</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Almería</t>
+          <t>Alicante</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SH SURESTE</t>
+          <t>SCALEVANTE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sergio Fernandez</t>
+          <t>David Ferri</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>sergio.fernandez@scania.com</t>
+          <t>dferri@scalevante.com</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>687754160</v>
+        <v>687527066</v>
       </c>
       <c r="G3" t="n">
-        <v>646280354</v>
+        <v>958999142</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Antonio Ponce</t>
+          <t>Eloy Verdu</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>antonio.ponce@scania.com</t>
+          <t>everdu@scalevante.com</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -703,90 +654,90 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>687754160</t>
+          <t>687527066</t>
         </is>
       </c>
       <c r="M3" s="3" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>1.538461538461</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.58</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ávila</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>R.PEINADO</t>
+          <t>SH CENTRO-CANARIAS</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>JORGE MARTÍN</t>
+          <t>ANTONIO MARTÍN</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">carlos.avis@talleres-pablo-garcia.com                 </t>
+          <t>antonio.martin@scania.com</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>649825955</v>
+        <v>626178294</v>
       </c>
       <c r="G4" t="n">
-        <v>608380596</v>
+        <v>955902000</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ALFONSO LABIÁN</t>
+          <t>CÉSAR LINARES</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>alfonso.labian@rpeinado.com</t>
+          <t>cesar.linares@scania.com</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Oscar Martinez</t>
+          <t>Raul Herranz</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>649825955</t>
+          <t>626178294</t>
         </is>
       </c>
       <c r="M4" s="4" t="n">
-        <v>79.74683544303798</v>
+        <v>35</v>
       </c>
       <c r="N4" t="n">
-        <v>39</v>
+        <v>2.857142857142</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.00</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Madrid (SH )</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -796,28 +747,28 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>JAVIER GARCÍA</t>
+          <t>ANTONIO MARTÍN</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>javier.garcia.jorge@scania.com</t>
+          <t>antonio.martin@scania.com</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>600480908</v>
+        <v>667224640</v>
       </c>
       <c r="G5" t="n">
-        <v>617114973</v>
+        <v>630407582</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>JAVIER GÓMEZ</t>
+          <t>CÉSAR LINARES</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>javier.gomez@scania.com</t>
+          <t>cesar.linares@scania.com</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -827,121 +778,123 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>600480908</t>
+          <t>667224640</t>
         </is>
       </c>
       <c r="M5" s="5" t="n">
-        <v>67.64705882352942</v>
+        <v>15</v>
       </c>
       <c r="N5" t="n">
-        <v>33</v>
+        <v>6.666666666666</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>1.50</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alicante</t>
+          <t>Cuenca</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SCALEVANTE</t>
+          <t>SH CENTRO-CANARIAS</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>David Ferri</t>
+          <t>CÉSAR LINARES</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>dferri@scalevante.com</t>
+          <t>cesar.linares@scania.com</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>687527066</v>
+        <v>687396555</v>
       </c>
       <c r="G6" t="n">
-        <v>958999142</v>
+        <v>608380596</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Eloy Verdu</t>
+          <t>CÉSAR LINARES</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>everdu@scalevante.com</t>
+          <t>cesar.linares@scania.com</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Oscar Martinez</t>
+          <t>Raul Herranz</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>687527066</t>
+          <t>687396555</t>
         </is>
       </c>
       <c r="M6" s="6" t="n">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="N6" t="n">
         <v>10</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>2.00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gerona</t>
+          <t>Ávila</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CAMION GRUP</t>
+          <t>R.PEINADO</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Jordi Guso</t>
+          <t>JORGE MARTÍN</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>jordi.guso@camiongrup.com</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>955902000</v>
+          <t xml:space="preserve">carlos.avis@talleres-pablo-garcia.com                 </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>649825 955</t>
+        </is>
       </c>
       <c r="G7" t="n">
-        <v>696895733</v>
+        <v>608380596</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Jordi Guso</t>
+          <t>ALFONSO LABIÁN</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>jordi.guso@camiongrup.com</t>
+          <t>alfonso.labian@rpeinado.com</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -951,18 +904,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>955902000</t>
-        </is>
-      </c>
-      <c r="M7" s="7" t="n">
-        <v>43.00341296928327</v>
-      </c>
-      <c r="N7" t="n">
-        <v>146</v>
+          <t>649825955</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -991,7 +938,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>626753105</v>
+        <v>34626753105</v>
       </c>
       <c r="G8" t="n">
         <v>628820282</v>
@@ -1011,30 +958,19 @@
           <t>Diego Gutierrez</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>626753105</t>
-        </is>
-      </c>
-      <c r="M8" s="8" t="n">
-        <v>42.11711711711711</v>
-      </c>
-      <c r="N8" t="n">
-        <v>433</v>
-      </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>36.04</t>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Teruel</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1044,28 +980,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ANTONIO MARTÍN</t>
+          <t>JAVIER GARCÍA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>antonio.martin@scania.com</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>626178294</v>
+          <t>javier.garcia.jorge@scania.com</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>+34629568367</t>
+        </is>
       </c>
       <c r="G9" t="n">
-        <v>955902000</v>
+        <v>609679378</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>CÉSAR LINARES</t>
+          <t>JAVIER GÓMEZ</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>cesar.linares@scania.com</t>
+          <t>javier.gomez@scania.com</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1075,792 +1013,61 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>626178294</t>
-        </is>
-      </c>
-      <c r="M9" s="9" t="n">
-        <v>35</v>
-      </c>
-      <c r="N9" t="n">
-        <v>4</v>
+          <t>629568367</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Madrid (SH )</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SH CENTRO-CANARIAS</t>
+          <t>SH SURESTE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ANTONIO MARTÍN</t>
+          <t>Sergio Fernandez</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>antonio.martin@scania.com</t>
+          <t>sergio.fernandez@scania.com</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>667224640</v>
+        <v>6877541606</v>
       </c>
       <c r="G10" t="n">
-        <v>630407582</v>
+        <v>646280354</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>CÉSAR LINARES</t>
+          <t>Antonio Ponce</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>cesar.linares@scania.com</t>
+          <t>antonio.ponce@scania.com</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Raul Herranz</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>667224640</t>
-        </is>
-      </c>
-      <c r="M10" s="10" t="n">
-        <v>15</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2</v>
+          <t>Oscar Martinez</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>17</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Cuenca</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>SH CENTRO-CANARIAS</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>CÉSAR LINARES</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>cesar.linares@scania.com</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>687396555</v>
-      </c>
-      <c r="G11" t="n">
-        <v>608380596</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>CÉSAR LINARES</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>cesar.linares@scania.com</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Raul Herranz</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>687396555</t>
-        </is>
-      </c>
-      <c r="M11" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Burgos</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>BODY&amp;TRUCK</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Ismael Heras</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ismael.heras@bodyandtruck.com</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>947480033</v>
-      </c>
-      <c r="G12" t="n">
-        <v>952179495</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Antonio Sanchez</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>antonio.sanchez@bodyandtruck.com</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Diego Gutierrez</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>947480033</t>
-        </is>
-      </c>
-      <c r="M12" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>51</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Zamora</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>SH NOROESTE</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Eduardo Alonso</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>eduardo.alonso@scania.com</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>987346451</v>
-      </c>
-      <c r="G13" t="n">
-        <v>682699441</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>David Fayos</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>david.fayos@scania.com</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Diego Gutierrez</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>987346451</t>
-        </is>
-      </c>
-      <c r="M13" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>15</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Ciudad Real</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>R.PEINADO</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>JORGE MARTÍN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>jorge.martin@rpeinado.com</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>670434813</v>
-      </c>
-      <c r="G14" t="n">
-        <v>616686909</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ALFONSO LABIÁN</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>alfonso.labian@rpeinado.com</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Oscar Martinez</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>670434813</t>
-        </is>
-      </c>
-      <c r="M14" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>35</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Murcia</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>SCALEVANTE</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Javier Espinosa</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>jespinosa@scalevante.com</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>629467596</v>
-      </c>
-      <c r="G15" t="n">
-        <v>35191619958</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Eloy Verdu</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>everdu@scalevante.com</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Oscar Martinez</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>629467596</t>
-        </is>
-      </c>
-      <c r="M15" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>44</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Soria</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>BODY&amp;TRUCK</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ISMAEL HERAS</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ismael.heras@bodyandtruck.com</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>619305180</v>
-      </c>
-      <c r="G16" t="n">
-        <v>616686909</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Antonio Sanchez</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>antonio.sanchez@bodyandtruck.com</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Diego Gutierrez</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>619305180</t>
-        </is>
-      </c>
-      <c r="M16" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>45</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Tarragona</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>T.RAPALO</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>AGUSTIN IRIARTE</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>agustin.idiarte@talleresrapalo.es</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>650434228</v>
-      </c>
-      <c r="G17" t="n">
-        <v>608380596</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>AGUSTIN IRIARTE</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>agustin.idiarte@talleresrapalo.es</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Diego Gutierrez</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>650434228</t>
-        </is>
-      </c>
-      <c r="M17" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>34</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Málaga</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>SH SURESTE</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Cristina Molero</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>cristina.molero@scania.com</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>952179495</v>
-      </c>
-      <c r="G18" t="n">
-        <v>669262101</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Francisco Molina</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>francisco.molina@scania.com</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Oscar Martinez</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>952179495</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>2</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Albacete</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>SCALEVANTE</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>David Ferri</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>dferri@scalevante.com</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>606372773</v>
-      </c>
-      <c r="G19" t="n">
-        <v>987346451</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Eloy Verdu</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>everdu@scalevante.com</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Oscar Martinez</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>606372773</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>14</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Castellón</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>T.RAPALO</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>XIMO BARBERÁ</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>ximo.barbera@talleresrapalo.es</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>696895733</v>
-      </c>
-      <c r="G20" t="n">
-        <v>678714482</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Enrique Ortiz</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>enrique.ortiz@talleresrapalo.es</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Diego Gutierrez</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>696895733</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>52</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Zaragoza</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>SH CENTRO-CANARIAS</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>JAVIER GARCÍA</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>javier.garcia.jorge@scania.com</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>193051803</v>
-      </c>
-      <c r="G21" t="n">
-        <v>606372773</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>JAVIER GÓMEZ</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>javier.gomez@scania.com</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Raul Herranz</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>193051803</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>26</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>La Coruña</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>SH NOROESTE</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Diego Alonso</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>diego.alonso@scania.com</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>682699441</v>
-      </c>
-      <c r="G22" t="n">
-        <v>660785264</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Jorge Luis Alonso Abella</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>jorge.alonso@scania.com</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Diego Gutierrez</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>682699441</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
